--- a/Diagramas de Gant.xlsx
+++ b/Diagramas de Gant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Jupyter\Proyecto algoritmo evolutivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6FF158-6449-420F-B46B-17A62F39062D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA170983-AF56-4637-A652-3EEED3DE4DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08138814-A577-4370-8F1F-0A107638C8BD}"/>
+    <workbookView xWindow="14085" yWindow="465" windowWidth="17535" windowHeight="14385" xr2:uid="{08138814-A577-4370-8F1F-0A107638C8BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -250,58 +256,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A232CDE7-BF6F-4C71-8540-9182087FEE54}">
-  <dimension ref="A2:Q40"/>
+  <dimension ref="A2:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,22 +641,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="G3" t="s">
         <v>6</v>
       </c>
@@ -719,22 +731,22 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
@@ -779,17 +791,17 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
@@ -867,17 +879,17 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -936,19 +948,19 @@
       <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="28">
-        <v>2</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="22">
-        <v>3</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="B21" s="22">
+        <v>2</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26">
+        <v>3</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -965,17 +977,17 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="18">
-        <v>2</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="19"/>
+      <c r="D22" s="29">
+        <v>2</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="16">
-        <v>1</v>
-      </c>
-      <c r="J22" s="17"/>
+      <c r="I22" s="24">
+        <v>1</v>
+      </c>
+      <c r="J22" s="25"/>
       <c r="K22" s="12">
         <v>3</v>
       </c>
@@ -990,21 +1002,21 @@
       <c r="A23" s="15">
         <v>3</v>
       </c>
-      <c r="B23" s="22">
-        <v>3</v>
-      </c>
-      <c r="C23" s="24"/>
+      <c r="B23" s="26">
+        <v>3</v>
+      </c>
+      <c r="C23" s="27"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18">
-        <v>2</v>
-      </c>
-      <c r="J23" s="19"/>
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="29">
+        <v>2</v>
+      </c>
+      <c r="J23" s="31"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -1031,20 +1043,20 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B33" s="27" t="s">
+    <row r="33" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1108,21 +1120,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B36" s="26" t="s">
+    <row r="36" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B36" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B37">
@@ -1174,45 +1186,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>1</v>
       </c>
-      <c r="B38" s="18">
-        <v>2</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="16">
-        <v>1</v>
-      </c>
-      <c r="E38" s="17"/>
+      <c r="B38" s="29">
+        <v>2</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="24">
+        <v>1</v>
+      </c>
+      <c r="E38" s="25"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="22">
-        <v>3</v>
-      </c>
-      <c r="M38" s="23"/>
-      <c r="N38" s="24"/>
+      <c r="L38" s="26">
+        <v>3</v>
+      </c>
+      <c r="M38" s="32"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="18">
-        <v>2</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="19"/>
+      <c r="D39" s="29">
+        <v>2</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1223,12 +1235,12 @@
       <c r="O39" s="11">
         <v>3</v>
       </c>
-      <c r="P39" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="17"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P39" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="25"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>3</v>
       </c>
@@ -1238,30 +1250,264 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="18">
-        <v>2</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="21">
-        <v>3</v>
-      </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="16">
-        <v>1</v>
-      </c>
-      <c r="M40" s="25"/>
-      <c r="N40" s="17"/>
+      <c r="H40" s="29">
+        <v>2</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="33">
+        <v>3</v>
+      </c>
+      <c r="K40" s="33"/>
+      <c r="L40" s="24">
+        <v>1</v>
+      </c>
+      <c r="M40" s="28"/>
+      <c r="N40" s="25"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2">
+        <v>4</v>
+      </c>
+      <c r="J45" s="2">
+        <v>3</v>
+      </c>
+      <c r="K45" s="2">
+        <v>4</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>11</v>
+      </c>
+      <c r="M48">
+        <v>12</v>
+      </c>
+      <c r="N48">
+        <v>13</v>
+      </c>
+      <c r="O48">
+        <v>14</v>
+      </c>
+      <c r="P48">
+        <v>15</v>
+      </c>
+      <c r="Q48">
+        <v>16</v>
+      </c>
+      <c r="R48">
+        <v>17</v>
+      </c>
+      <c r="S48">
+        <v>18</v>
+      </c>
+      <c r="T48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="34"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="37"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" s="34"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" s="35"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L40:N40"/>
     <mergeCell ref="B36:J36"/>
     <mergeCell ref="B33:J33"/>
     <mergeCell ref="B19:J19"/>
@@ -1273,14 +1519,11 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
